--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/DichVu_Export_Template.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/DichVu_Export_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\Open beauty\lucky_beauty\beautify_api\8.0.0\aspnet-core\src\BanHangBeautify.Web.Host\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code-manhld-github\beautify_app_flutter\beautify_api\8.0.0\aspnet-core\src\BanHangBeautify.Web.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,28 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>HoTen</t>
-  </si>
-  <si>
-    <t>NgaySinh</t>
-  </si>
-  <si>
-    <t>CanCuocCongDan</t>
-  </si>
-  <si>
-    <t>DiaChi</t>
-  </si>
-  <si>
-    <t>TenTinhThanh</t>
-  </si>
-  <si>
-    <t>NgayBatDauLamViec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Mã dịch vụ</t>
   </si>
@@ -193,11 +172,11 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -485,7 +464,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +472,7 @@
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="36" style="2" customWidth="1"/>
     <col min="3" max="3" width="37.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="16" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="22" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.140625" style="2" customWidth="1"/>
@@ -503,35 +482,13 @@
     <col min="11" max="11" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
+    <row r="1" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:43" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -582,19 +539,19 @@
     </row>
     <row r="4" spans="1:43" s="13" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
